--- a/Reports/ExcelOutput.xlsx
+++ b/Reports/ExcelOutput.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="48">
   <si>
     <t>Popular Models of Used Cars</t>
   </si>
@@ -151,6 +151,24 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Expected 30 Mar 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch : Mar 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch : Apr 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch : Jun 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch : Nov 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch : Unrevealed</t>
   </si>
 </sst>
 </file>
@@ -514,7 +532,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>25</v>
@@ -525,13 +543,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>26</v>
@@ -539,13 +557,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>27</v>
@@ -553,13 +571,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>28</v>
@@ -567,13 +585,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>29</v>
@@ -581,13 +599,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>30</v>
@@ -601,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>31</v>
@@ -615,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>32</v>

--- a/Reports/ExcelOutput.xlsx
+++ b/Reports/ExcelOutput.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="48">
   <si>
     <t>Popular Models of Used Cars</t>
   </si>

--- a/Reports/ExcelOutput.xlsx
+++ b/Reports/ExcelOutput.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3325" uniqueCount="49">
   <si>
     <t>Popular Models of Used Cars</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Expected Launch : Unrevealed</t>
+  </si>
+  <si>
+    <t>Expected 31 Dec 2050</t>
   </si>
 </sst>
 </file>
@@ -526,13 +529,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>25</v>
@@ -543,13 +546,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>26</v>
@@ -557,13 +560,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>27</v>
@@ -571,13 +574,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>28</v>
@@ -585,13 +588,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>29</v>
@@ -599,13 +602,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>30</v>
@@ -613,10 +616,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>47</v>
@@ -627,13 +630,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>32</v>
